--- a/FinalProject.2025.08.10/admin/adminWorkbook.xlsx
+++ b/FinalProject.2025.08.10/admin/adminWorkbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -554,7 +554,6 @@
           <t>Shire Gardening</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Gaffer</t>
@@ -565,19 +564,118 @@
           <t>January 1, 2023</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>sambaggins@outlook.com</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>1-555-987-1212</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bilbo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Baggins</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Party Planning</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mithrandir</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>04/24/2022</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10/31/2026</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>bbaggins@outlook.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>555-456-8764</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Peregrin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Took</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Farming Consulting</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Meriadoc Brandybuck</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07/16/2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ptook@outlook.com</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>15553490293</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>555-777-7676</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FinalProject.2025.08.10/admin/adminWorkbook.xlsx
+++ b/FinalProject.2025.08.10/admin/adminWorkbook.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Program Team" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allergies" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,24 +416,11 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="22.140625" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="16.28515625" customWidth="1" min="5" max="5"/>
-    <col width="17.7109375" customWidth="1" min="6" max="6"/>
-    <col width="14.28515625" customWidth="1" min="7" max="7"/>
-    <col width="22.85546875" customWidth="1" min="8" max="8"/>
-    <col width="16.140625" customWidth="1" min="9" max="9"/>
-    <col width="17.140625" customWidth="1" min="10" max="10"/>
-    <col width="19.7109375" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
